--- a/data/trans_orig/Q23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Habitat-trans_orig.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,11 +636,17 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,71</t>
+          <t>15,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,73</t>
+          <t>16,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,22</t>
+          <t>14,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,98</t>
+          <t>16,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,38</t>
+          <t>17,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>17,64</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16,2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17,31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16,3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16,7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16,62</t>
         </is>
       </c>
     </row>
@@ -639,39 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,08; 16,26</t>
+          <t>15,76; 16,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,13; 16,42</t>
+          <t>15,91; 16,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,98; 20,44</t>
+          <t>14,09; 15,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,5</t>
+          <t>15,9; 16,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,76; 17,06</t>
+          <t>16,6; 17,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,82; 17,04</t>
+          <t>17,1; 18,2</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15,54; 16,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16,97; 17,81</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16,08; 16,51</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 17,01</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14,5; 15,82</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 16,86</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,03</t>
+          <t>16,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,33</t>
+          <t>16,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,78</t>
+          <t>15,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,58</t>
+          <t>16,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,28</t>
+          <t>17,51</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>17,67</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16,39</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17,14</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16,92</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,97</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,93</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,57</t>
         </is>
       </c>
     </row>
@@ -719,39 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 16,26</t>
+          <t>16,31; 17,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 16,73</t>
+          <t>16,28; 16,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,41; 17,2</t>
+          <t>14,93; 17,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,1; 18,4</t>
+          <t>16,03; 16,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 16,5</t>
+          <t>17,14; 18,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 17,13</t>
+          <t>17,2; 18,22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15,21; 18,52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16,88; 17,49</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16,65; 17,22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16,73; 17,24</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15,24; 17,05</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16,24; 16,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,6</t>
+          <t>16,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,56</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,51</t>
+          <t>15,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,67</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
+          <t>17,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>17,31</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14,56</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,73</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16,89</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16,81</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15,54</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,4</t>
         </is>
       </c>
     </row>
@@ -799,39 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,31; 17,03</t>
+          <t>16,01; 16,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,28; 16,84</t>
+          <t>16,14; 16,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 18,08</t>
+          <t>14,61; 17,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,2; 18,22</t>
+          <t>16,75; 17,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,65; 17,22</t>
+          <t>17,31; 18,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,73; 17,24</t>
+          <t>16,84; 17,84</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13,05; 15,67</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17,26; 18,24</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16,59; 17,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>16,54; 17,09</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14,46; 16,86</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17,09; 17,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,29</t>
+          <t>16,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,47</t>
+          <t>16,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,95</t>
+          <t>15,71</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,31</t>
+          <t>16,68</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>17,4</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,81</t>
+          <t>17,92</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,04</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17,61</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16,8</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15,79</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17,09</t>
         </is>
       </c>
     </row>
@@ -879,39 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 16,61</t>
+          <t>16,16; 16,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 16,81</t>
+          <t>16,29; 16,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 18,99</t>
+          <t>15,15; 16,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,84</t>
+          <t>16,37; 17,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,59; 17,34</t>
+          <t>16,97; 17,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,54; 17,09</t>
+          <t>17,41; 18,65</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 17,81</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 18,11</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16,57; 17,05</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16,83; 17,46</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15,32; 16,29</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,84; 17,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,38</t>
+          <t>16,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,53</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,4</t>
+          <t>15,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,8</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,12</t>
+          <t>17,65</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,95</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,46</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,75</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,92</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,66</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,9</t>
         </is>
       </c>
     </row>
@@ -959,134 +1284,83 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,16; 16,63</t>
+          <t>16,19; 16,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,29; 16,79</t>
+          <t>16,31; 16,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,93</t>
+          <t>15,14; 16,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,41; 18,65</t>
+          <t>16,33; 16,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,05</t>
+          <t>17,2; 17,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,83; 17,46</t>
+          <t>17,38; 17,95</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 16,94</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,26; 17,69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,62; 16,89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 17,06</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,32; 16,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 17,07</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>16,34</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>16,46</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,47</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>17,65</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16,75</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>16,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>16,19; 16,5</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,31; 16,61</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,2; 17,75</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>17,38; 17,95</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>16,62; 16,89</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>16,79; 17,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Q23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,15 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según edad a la que empezó a fumar tabaco</t>
+          <t>Edad media de inicio en el consumo de tabaco/marihuana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -666,52 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,89</t>
+          <t>16,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,22</t>
+          <t>17,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,0</t>
+          <t>17,64</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,64</t>
+          <t>17,91</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,2</t>
+          <t>16,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,31</t>
+          <t>16,7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,3</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>16,7</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>15,2</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>16,62</t>
+          <t>16,93</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,76; 16,21</t>
+          <t>15,75; 16,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,91; 16,57</t>
+          <t>15,94; 16,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,09; 15,71</t>
+          <t>15,99; 16,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,9; 16,54</t>
+          <t>16,61; 17,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,6; 17,43</t>
+          <t>17,16; 18,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,1; 18,2</t>
+          <t>17,34; 18,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 16,76</t>
+          <t>16,1; 16,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,81</t>
+          <t>16,41; 16,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,08; 16,51</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>16,41; 17,01</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>14,5; 15,82</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>16,37; 16,86</t>
+          <t>16,59; 17,38</t>
         </is>
       </c>
     </row>
@@ -806,52 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,69</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,34</t>
+          <t>17,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,51</t>
+          <t>17,67</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,67</t>
+          <t>17,28</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,39</t>
+          <t>16,92</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>16,97</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>15,93</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>16,57</t>
+          <t>16,86</t>
         </is>
       </c>
     </row>
@@ -864,62 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,31; 17,03</t>
+          <t>16,28; 17,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,28; 16,84</t>
+          <t>16,3; 16,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 17,36</t>
+          <t>16,26; 17,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,03; 16,72</t>
+          <t>17,11; 18,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,14; 18,08</t>
+          <t>17,26; 18,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,2; 18,22</t>
+          <t>16,86; 17,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,21; 18,52</t>
+          <t>16,66; 17,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,88; 17,49</t>
+          <t>16,75; 17,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,65; 17,22</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>16,73; 17,24</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>15,24; 17,05</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>16,24; 16,88</t>
+          <t>16,58; 17,14</t>
         </is>
       </c>
     </row>
@@ -946,52 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,86</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,18</t>
+          <t>17,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,95</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,31</t>
+          <t>17,67</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,56</t>
+          <t>16,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,73</t>
+          <t>16,81</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>16,81</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>15,54</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>17,4</t>
+          <t>16,96</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,01; 16,61</t>
+          <t>16,04; 16,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,14; 16,81</t>
+          <t>16,17; 16,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,61; 17,29</t>
+          <t>16,17; 16,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,76</t>
+          <t>17,35; 18,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,31; 18,99</t>
+          <t>16,86; 17,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,84</t>
+          <t>17,2; 18,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,05; 15,67</t>
+          <t>16,58; 17,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,26; 18,24</t>
+          <t>16,57; 17,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,59; 17,34</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>16,54; 17,09</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>14,46; 16,86</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>17,09; 17,79</t>
+          <t>16,69; 17,3</t>
         </is>
       </c>
     </row>
@@ -1086,52 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,71</t>
+          <t>16,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,68</t>
+          <t>17,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,4</t>
+          <t>17,92</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>17,84</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,04</t>
+          <t>16,8</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,61</t>
+          <t>17,12</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,8</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
           <t>17,12</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>15,79</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>17,09</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 16,63</t>
+          <t>16,17; 16,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,29; 16,79</t>
+          <t>16,31; 16,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,15; 16,14</t>
+          <t>16,2; 16,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 17,01</t>
+          <t>16,95; 17,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,93</t>
+          <t>17,39; 18,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 18,65</t>
+          <t>17,37; 18,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,94; 17,81</t>
+          <t>16,58; 17,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,23; 18,11</t>
+          <t>16,84; 17,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,05</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>16,83; 17,46</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>15,32; 16,29</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>16,84; 17,34</t>
+          <t>16,84; 17,43</t>
         </is>
       </c>
     </row>
@@ -1226,17 +1082,17 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,55</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1246,32 +1102,17 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,95</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,46</t>
+          <t>16,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>16,92</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>15,66</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>16,9</t>
+          <t>16,97</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,19; 16,5</t>
+          <t>16,21; 16,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,61</t>
+          <t>16,32; 16,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,14; 16,03</t>
+          <t>16,32; 16,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,33; 16,8</t>
+          <t>17,21; 17,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,75</t>
+          <t>17,39; 17,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,95</t>
+          <t>17,41; 17,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,36; 16,94</t>
+          <t>16,62; 16,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,26; 17,69</t>
+          <t>16,8; 17,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,62; 16,89</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>16,79; 17,06</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>15,32; 16,1</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>16,67; 17,07</t>
+          <t>16,82; 17,13</t>
         </is>
       </c>
     </row>
@@ -1352,15 +1178,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
